--- a/Evaluation/Overall results.xlsx
+++ b/Evaluation/Overall results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max_b\OneDrive\שולחן העבודה\New folder (10)\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max_b\OneDrive\שולחן העבודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC573247-5BAF-41B3-BDCD-E4566E5D34C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9AB6F3-ABDA-4E9A-A69F-29322FF7516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-54075" yWindow="4785" windowWidth="19200" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="44">
   <si>
     <t>Dataset</t>
   </si>
@@ -157,6 +157,18 @@
   <si>
     <t>TABLE V</t>
   </si>
+  <si>
+    <t>f0.5 - cohen's d effect size</t>
+  </si>
+  <si>
+    <t>f2 -cohen's d effect size</t>
+  </si>
+  <si>
+    <t>f1 - cohen's d effect size</t>
+  </si>
+  <si>
+    <t>f2 - cohen's d effect size</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,8 +272,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +341,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -660,11 +702,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,28 +855,89 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -820,10 +946,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,19 +977,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,7 +986,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,32 +1001,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2168,62 +2280,71 @@
   </sheetPr>
   <dimension ref="A2:AU128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="22" max="22" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="77" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="77" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -2235,40 +2356,40 @@
       <c r="AU3" s="2"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="68" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="68" t="s">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="68" t="s">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="68" t="s">
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="93" t="s">
         <v>7</v>
       </c>
       <c r="AS4" s="3"/>
@@ -2276,9 +2397,9 @@
       <c r="AU4" s="3"/>
     </row>
     <row r="5" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="26" t="s">
         <v>5</v>
       </c>
@@ -2315,9 +2436,9 @@
       <c r="O5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
@@ -2498,6 +2619,33 @@
       <c r="R8" s="22">
         <v>5</v>
       </c>
+      <c r="U8" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AC8" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AK8" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -2558,6 +2706,63 @@
       <c r="R9" s="22">
         <v>5</v>
       </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="AR9" s="4"/>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -2618,6 +2823,63 @@
       <c r="R10" s="22">
         <v>5</v>
       </c>
+      <c r="U10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="70"/>
+      <c r="W10" s="71">
+        <v>5.0563992100000004</v>
+      </c>
+      <c r="X10" s="71">
+        <v>4.71930593</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>1.61558592</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>3.7599464199999999</v>
+      </c>
+      <c r="AA10" s="71">
+        <v>3.2164317200000001</v>
+      </c>
+      <c r="AC10" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="68">
+        <v>4.2083283399999996</v>
+      </c>
+      <c r="AF10" s="68">
+        <v>3.04554488</v>
+      </c>
+      <c r="AG10" s="68">
+        <v>1.6834861299999999</v>
+      </c>
+      <c r="AH10" s="68">
+        <v>1.8291199</v>
+      </c>
+      <c r="AI10" s="68">
+        <v>2.09463789</v>
+      </c>
+      <c r="AK10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="68">
+        <v>3.8753901499999999</v>
+      </c>
+      <c r="AN10" s="68">
+        <v>5.7950570199999998</v>
+      </c>
+      <c r="AO10" s="68">
+        <v>0.83959251999999995</v>
+      </c>
+      <c r="AP10" s="68">
+        <v>4.9476394499999996</v>
+      </c>
+      <c r="AQ10" s="68">
+        <v>3.54177198</v>
+      </c>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
@@ -2678,10 +2940,63 @@
       <c r="R11" s="22">
         <v>13</v>
       </c>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
+      <c r="U11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="71">
+        <v>-5.0563992100000004</v>
+      </c>
+      <c r="W11" s="70"/>
+      <c r="X11" s="71">
+        <v>-0.28915663000000003</v>
+      </c>
+      <c r="Y11" s="71">
+        <v>-1.1329759399999999</v>
+      </c>
+      <c r="Z11" s="71">
+        <v>-1.2465336600000001</v>
+      </c>
+      <c r="AA11" s="71">
+        <v>-1.5783132499999999</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="68">
+        <v>-4.2083283399999996</v>
+      </c>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="68">
+        <v>-1.1857617499999999</v>
+      </c>
+      <c r="AG11" s="68">
+        <v>-0.76822469000000004</v>
+      </c>
+      <c r="AH11" s="68">
+        <v>-1.9523342400000001</v>
+      </c>
+      <c r="AI11" s="68">
+        <v>-2.3663898400000001</v>
+      </c>
+      <c r="AK11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="68">
+        <v>-3.8753901499999999</v>
+      </c>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="68">
+        <v>0.73141699999999998</v>
+      </c>
+      <c r="AO11" s="68">
+        <v>-1.3405637399999999</v>
+      </c>
+      <c r="AP11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="68">
+        <v>-0.43049195000000001</v>
+      </c>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -2742,10 +3057,63 @@
       <c r="R12" s="22">
         <v>11</v>
       </c>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
+      <c r="U12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="71">
+        <v>-4.71930593</v>
+      </c>
+      <c r="W12" s="71">
+        <v>0.28915663000000003</v>
+      </c>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="71">
+        <v>-0.95525422000000004</v>
+      </c>
+      <c r="Z12" s="71">
+        <v>-0.95032764000000003</v>
+      </c>
+      <c r="AA12" s="71">
+        <v>-1.2891566299999999</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD12" s="68">
+        <v>-3.04554488</v>
+      </c>
+      <c r="AE12" s="68">
+        <v>1.1857617499999999</v>
+      </c>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="68">
+        <v>-4.8167429999999997E-2</v>
+      </c>
+      <c r="AH12" s="68">
+        <v>-0.88097128999999996</v>
+      </c>
+      <c r="AI12" s="68">
+        <v>-1.1328129199999999</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL12" s="68">
+        <v>-5.7950569999999999</v>
+      </c>
+      <c r="AM12" s="68">
+        <v>-0.73141699999999998</v>
+      </c>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="68">
+        <v>-1.89202274</v>
+      </c>
+      <c r="AP12" s="68">
+        <v>-0.86812051000000001</v>
+      </c>
+      <c r="AQ12" s="68">
+        <v>-1.25041548</v>
+      </c>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -2806,10 +3174,63 @@
       <c r="R13" s="22">
         <v>8</v>
       </c>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
+      <c r="U13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="71">
+        <v>-1.61558592</v>
+      </c>
+      <c r="W13" s="71">
+        <v>1.1329759399999999</v>
+      </c>
+      <c r="X13" s="71">
+        <v>0.95525422000000004</v>
+      </c>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="71">
+        <v>0.38853061</v>
+      </c>
+      <c r="AA13" s="71">
+        <v>0.16291157000000001</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="68">
+        <v>-1.6834861299999999</v>
+      </c>
+      <c r="AE13" s="68">
+        <v>0.76822469000000004</v>
+      </c>
+      <c r="AF13" s="68">
+        <v>4.8167429999999997E-2</v>
+      </c>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="68">
+        <v>-0.50728647000000004</v>
+      </c>
+      <c r="AI13" s="68">
+        <v>-0.59294855000000002</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL13" s="68">
+        <v>-0.83959251999999995</v>
+      </c>
+      <c r="AM13" s="68">
+        <v>1.3405637399999999</v>
+      </c>
+      <c r="AN13" s="68">
+        <v>1.89202274</v>
+      </c>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="68">
+        <v>1.4232424100000001</v>
+      </c>
+      <c r="AQ13" s="68">
+        <v>1.0678834800000001</v>
+      </c>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -2870,10 +3291,63 @@
       <c r="R14" s="22">
         <v>7</v>
       </c>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
+      <c r="U14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" s="71">
+        <v>-3.7599464199999999</v>
+      </c>
+      <c r="W14" s="71">
+        <v>1.2465336600000001</v>
+      </c>
+      <c r="X14" s="71">
+        <v>0.95032764000000003</v>
+      </c>
+      <c r="Y14" s="71">
+        <v>-0.38853061</v>
+      </c>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="71">
+        <v>-0.37025752000000001</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD14" s="68">
+        <v>-1.8291199</v>
+      </c>
+      <c r="AE14" s="68">
+        <v>1.9523342400000001</v>
+      </c>
+      <c r="AF14" s="68">
+        <v>0.88097128999999996</v>
+      </c>
+      <c r="AG14" s="68">
+        <v>0.50728647000000004</v>
+      </c>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="68">
+        <v>-8.8869660000000003E-2</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL14" s="68">
+        <v>-4.9476394499999996</v>
+      </c>
+      <c r="AM14" s="68">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="68">
+        <v>0.86812051000000001</v>
+      </c>
+      <c r="AO14" s="68">
+        <v>-1.4232424100000001</v>
+      </c>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="68">
+        <v>-0.49649413999999997</v>
+      </c>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -2924,10 +3398,63 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="R15" s="56"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
+      <c r="U15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="71">
+        <v>-3.2164317200000001</v>
+      </c>
+      <c r="W15" s="71">
+        <v>1.5783132499999999</v>
+      </c>
+      <c r="X15" s="71">
+        <v>1.2891566299999999</v>
+      </c>
+      <c r="Y15" s="71">
+        <v>-0.16291157000000001</v>
+      </c>
+      <c r="Z15" s="71">
+        <v>0.37025752000000001</v>
+      </c>
+      <c r="AA15" s="71"/>
+      <c r="AC15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="68">
+        <v>-2.09463789</v>
+      </c>
+      <c r="AE15" s="68">
+        <v>2.3663898400000001</v>
+      </c>
+      <c r="AF15" s="68">
+        <v>1.1328129199999999</v>
+      </c>
+      <c r="AG15" s="68">
+        <v>0.59294855000000002</v>
+      </c>
+      <c r="AH15" s="68">
+        <v>8.8869660000000003E-2</v>
+      </c>
+      <c r="AI15" s="16"/>
+      <c r="AK15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="68">
+        <v>-3.54177198</v>
+      </c>
+      <c r="AM15" s="68">
+        <v>0.43049195000000001</v>
+      </c>
+      <c r="AN15" s="68">
+        <v>1.25041548</v>
+      </c>
+      <c r="AO15" s="68">
+        <v>-1.0678834800000001</v>
+      </c>
+      <c r="AP15" s="68">
+        <v>0.49649413999999997</v>
+      </c>
+      <c r="AQ15" s="16"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
@@ -2977,6 +3504,13 @@
       </c>
       <c r="R16" s="57"/>
       <c r="S16" s="5"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
       <c r="AU16" s="5"/>
     </row>
     <row r="17" spans="1:43" ht="15.75" customHeight="1">
@@ -3000,149 +3534,149 @@
     </row>
     <row r="18" spans="1:43" ht="12.5"/>
     <row r="19" spans="1:43" ht="12.5">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="U19" s="71" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="U19" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
     </row>
     <row r="20" spans="1:43" ht="12.5">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="66" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="66" t="s">
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="66" t="s">
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="U20" s="73" t="s">
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="U20" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AC20" s="73" t="s">
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AC20" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AK20" s="73" t="s">
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
+      <c r="AK20" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="74"/>
-      <c r="AO20" s="74"/>
-      <c r="AP20" s="74"/>
-      <c r="AQ20" s="74"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="89"/>
+      <c r="AO20" s="89"/>
+      <c r="AP20" s="89"/>
+      <c r="AQ20" s="89"/>
     </row>
     <row r="21" spans="1:43" ht="12.5">
-      <c r="A21" s="67"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="62" t="s">
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="62" t="s">
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="62" t="s">
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="62" t="s">
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="62" t="s">
+      <c r="R21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="62" t="s">
+      <c r="S21" s="95" t="s">
         <v>10</v>
       </c>
       <c r="U21" s="18"/>
@@ -3204,10 +3738,10 @@
       </c>
     </row>
     <row r="22" spans="1:43" ht="12.5">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="15" t="s">
         <v>8</v>
       </c>
@@ -3244,9 +3778,9 @@
       <c r="P22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
       <c r="U22" s="25" t="s">
         <v>1</v>
       </c>
@@ -4222,59 +4756,59 @@
     <row r="34" spans="1:27" ht="12.5"/>
     <row r="35" spans="1:27" s="14" customFormat="1" ht="12.5"/>
     <row r="37" spans="1:27" ht="12.5">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="64" t="s">
+      <c r="P37" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
       <c r="V37" s="22"/>
-      <c r="W37" s="70" t="s">
+      <c r="W37" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
     </row>
     <row r="38" spans="1:27" ht="12.5">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="82" t="s">
+      <c r="B38" s="108"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="82" t="s">
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="99" t="s">
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="83"/>
+      <c r="M38" s="109"/>
       <c r="O38" s="22"/>
       <c r="P38" s="23" t="s">
         <v>12</v>
@@ -4309,29 +4843,29 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="12.5">
-      <c r="A39" s="81"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87" t="s">
+      <c r="E39" s="112"/>
+      <c r="F39" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="85" t="s">
+      <c r="G39" s="114"/>
+      <c r="H39" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="87" t="s">
+      <c r="I39" s="112"/>
+      <c r="J39" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="88"/>
-      <c r="L39" s="100" t="s">
+      <c r="K39" s="114"/>
+      <c r="L39" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="M39" s="61" t="s">
+      <c r="M39" s="124" t="s">
         <v>6</v>
       </c>
       <c r="O39" s="21" t="s">
@@ -4388,29 +4922,29 @@
       <c r="D40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="105" t="s">
+      <c r="F40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="104" t="s">
+      <c r="G40" s="65" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="104" t="s">
+      <c r="I40" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="105" t="s">
+      <c r="J40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="104" t="s">
+      <c r="K40" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="106"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="114"/>
       <c r="O40" s="21" t="s">
         <v>13</v>
       </c>
@@ -4465,7 +4999,7 @@
       <c r="B41" s="51">
         <v>0.83899999999999997</v>
       </c>
-      <c r="C41" s="101">
+      <c r="C41" s="62">
         <v>0.90500000000000003</v>
       </c>
       <c r="D41" s="22">
@@ -4552,7 +5086,7 @@
       <c r="B42" s="52">
         <v>0.83299999999999996</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="63">
         <v>0.95199999999999996</v>
       </c>
       <c r="D42" s="22">
@@ -4638,7 +5172,7 @@
       <c r="B43" s="52">
         <v>0.91700000000000004</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="63">
         <v>0.91700000000000004</v>
       </c>
       <c r="D43" s="22">
@@ -4723,7 +5257,7 @@
       <c r="B44" s="52">
         <v>0.878</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="63">
         <v>0.83299999999999996</v>
       </c>
       <c r="D44" s="22">
@@ -4810,7 +5344,7 @@
       <c r="B45" s="52">
         <v>0.83299999999999996</v>
       </c>
-      <c r="C45" s="102">
+      <c r="C45" s="63">
         <v>0.88900000000000001</v>
       </c>
       <c r="D45" s="22">
@@ -4896,7 +5430,7 @@
       <c r="B46" s="52">
         <v>0.8</v>
       </c>
-      <c r="C46" s="102">
+      <c r="C46" s="63">
         <v>0.65200000000000002</v>
       </c>
       <c r="D46" s="22">
@@ -4983,7 +5517,7 @@
       <c r="B47" s="52">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C47" s="102">
+      <c r="C47" s="63">
         <v>0.76200000000000001</v>
       </c>
       <c r="D47" s="22">
@@ -5070,7 +5604,7 @@
       <c r="B48" s="52">
         <v>0.93600000000000005</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="63">
         <v>0.90900000000000003</v>
       </c>
       <c r="D48" s="22">
@@ -5153,7 +5687,7 @@
       <c r="B49" s="54">
         <v>0.94199999999999995</v>
       </c>
-      <c r="C49" s="103">
+      <c r="C49" s="64">
         <v>0.84599999999999997</v>
       </c>
       <c r="D49" s="22">
@@ -5197,34 +5731,34 @@
       <c r="C50" s="59">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D50" s="107">
+      <c r="D50" s="66">
         <v>0.46200000000000002</v>
       </c>
-      <c r="E50" s="108">
+      <c r="E50" s="67">
         <v>0.40200000000000002</v>
       </c>
-      <c r="F50" s="107">
+      <c r="F50" s="66">
         <v>0.49099999999999999</v>
       </c>
-      <c r="G50" s="108">
+      <c r="G50" s="67">
         <v>0.51700000000000002</v>
       </c>
-      <c r="H50" s="107">
+      <c r="H50" s="66">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I50" s="108">
+      <c r="I50" s="67">
         <v>0.48199999999999998</v>
       </c>
-      <c r="J50" s="107">
+      <c r="J50" s="66">
         <v>0.48</v>
       </c>
-      <c r="K50" s="108">
+      <c r="K50" s="67">
         <v>0.38800000000000001</v>
       </c>
-      <c r="L50" s="107">
+      <c r="L50" s="66">
         <v>0.68700000000000006</v>
       </c>
-      <c r="M50" s="108">
+      <c r="M50" s="67">
         <v>0.72399999999999998</v>
       </c>
       <c r="U50" s="24"/>
@@ -5275,57 +5809,57 @@
     <row r="52" spans="1:38" ht="12.5"/>
     <row r="53" spans="1:38" ht="12.5"/>
     <row r="54" spans="1:38" ht="12.5">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
-      <c r="R54" s="89" t="s">
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="R54" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="89"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90"/>
     </row>
     <row r="55" spans="1:38" ht="12.5">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66" t="s">
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="66" t="s">
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
       <c r="R55" s="31"/>
       <c r="S55" s="25" t="s">
         <v>1</v>
@@ -5341,7 +5875,7 @@
       </c>
     </row>
     <row r="56" spans="1:38" ht="12.5">
-      <c r="A56" s="62"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="15" t="s">
         <v>5</v>
       </c>
@@ -5352,23 +5886,23 @@
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="62" t="s">
+      <c r="H56" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="62" t="s">
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="62" t="s">
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="O56" s="62" t="s">
+      <c r="O56" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="P56" s="62" t="s">
+      <c r="P56" s="95" t="s">
         <v>10</v>
       </c>
       <c r="R56" s="25" t="s">
@@ -5388,7 +5922,7 @@
       </c>
     </row>
     <row r="57" spans="1:38" ht="12.5">
-      <c r="A57" s="62"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -5425,9 +5959,9 @@
       <c r="M57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
       <c r="R57" s="16" t="s">
         <v>16</v>
       </c>
@@ -5842,6 +6376,27 @@
         <f t="shared" si="11"/>
         <v>0.41673465637633228</v>
       </c>
+      <c r="R63" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90"/>
+      <c r="X63" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y63" s="90"/>
+      <c r="Z63" s="90"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="90"/>
+      <c r="AD63" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE63" s="90"/>
+      <c r="AF63" s="90"/>
+      <c r="AG63" s="90"/>
+      <c r="AH63" s="90"/>
     </row>
     <row r="64" spans="1:38" ht="12.5">
       <c r="A64" s="18" t="s">
@@ -5903,6 +6458,45 @@
       <c r="P64" s="16">
         <f t="shared" si="11"/>
         <v>0.88235294117647056</v>
+      </c>
+      <c r="R64" s="31"/>
+      <c r="S64" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="T64" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="U64" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V64" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="X64" s="76"/>
+      <c r="Y64" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA64" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB64" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD64" s="76"/>
+      <c r="AE64" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG64" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH64" s="73" t="s">
+        <v>4</v>
       </c>
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
@@ -5973,6 +6567,47 @@
         <f t="shared" si="11"/>
         <v>0.85371206420867818</v>
       </c>
+      <c r="R65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" s="85"/>
+      <c r="T65" s="83">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="U65" s="83">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="V65" s="86">
+        <v>1.825</v>
+      </c>
+      <c r="W65" s="79"/>
+      <c r="X65" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="68">
+        <v>0.97088966170347202</v>
+      </c>
+      <c r="AA65" s="68">
+        <v>1.06977894986294</v>
+      </c>
+      <c r="AB65" s="84">
+        <v>1.7152487598820401</v>
+      </c>
+      <c r="AC65" s="80"/>
+      <c r="AD65" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="83"/>
+      <c r="AF65" s="83">
+        <v>1.05444615682564</v>
+      </c>
+      <c r="AG65" s="83">
+        <v>0.40400165867261401</v>
+      </c>
+      <c r="AH65" s="83">
+        <v>1.52171058127228</v>
+      </c>
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
       <c r="AK65" s="5"/>
@@ -6042,13 +6677,53 @@
         <f t="shared" si="11"/>
         <v>0.4254843517138599</v>
       </c>
-      <c r="AH66" s="7"/>
+      <c r="R66" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="83">
+        <v>-0.83</v>
+      </c>
+      <c r="T66" s="61"/>
+      <c r="U66" s="83">
+        <v>0.28264449392831198</v>
+      </c>
+      <c r="V66" s="86">
+        <v>0.462787545469524</v>
+      </c>
+      <c r="W66" s="79"/>
+      <c r="X66" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y66" s="68">
+        <v>-0.97088966170347202</v>
+      </c>
+      <c r="Z66" s="68"/>
+      <c r="AA66" s="68">
+        <v>-0.19406274941888199</v>
+      </c>
+      <c r="AB66" s="84">
+        <v>0.17630861427896599</v>
+      </c>
+      <c r="AC66" s="80"/>
+      <c r="AD66" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE66" s="83">
+        <v>-1.05444615682564</v>
+      </c>
+      <c r="AF66" s="61"/>
+      <c r="AG66" s="83">
+        <v>-0.71269027573945998</v>
+      </c>
+      <c r="AH66" s="83">
+        <v>-9.7325041376761706E-2</v>
+      </c>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
     </row>
-    <row r="67" spans="1:38" ht="12.5">
+    <row r="67" spans="1:38" ht="14">
       <c r="A67" s="19" t="s">
         <v>24</v>
       </c>
@@ -6112,13 +6787,53 @@
         <f t="shared" si="12"/>
         <v>0.6963991106143117</v>
       </c>
-      <c r="AH67" s="5"/>
+      <c r="R67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S67" s="83">
+        <v>-1.51182613443073</v>
+      </c>
+      <c r="T67" s="83">
+        <v>-0.28264449392831198</v>
+      </c>
+      <c r="U67" s="61"/>
+      <c r="V67" s="86">
+        <v>0.21112100110349499</v>
+      </c>
+      <c r="W67" s="79"/>
+      <c r="X67" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y67" s="68">
+        <v>-1.06977894986294</v>
+      </c>
+      <c r="Z67" s="68">
+        <v>0.19406274941888199</v>
+      </c>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="84">
+        <v>0.47943563402227801</v>
+      </c>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE67" s="83">
+        <v>-0.40400165867261401</v>
+      </c>
+      <c r="AF67" s="83">
+        <v>0.71269027573945998</v>
+      </c>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="83">
+        <v>0.87112463692964304</v>
+      </c>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5"/>
       <c r="AL67" s="5"/>
     </row>
-    <row r="68" spans="1:38" ht="12.5">
+    <row r="68" spans="1:38" ht="14">
       <c r="A68" s="18"/>
       <c r="B68" s="16">
         <f>STDEV(B58:B66)</f>
@@ -6180,40 +6895,81 @@
         <f t="shared" si="13"/>
         <v>0.26269392928111313</v>
       </c>
+      <c r="R68" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S68" s="83">
+        <v>-1.82537667345674</v>
+      </c>
+      <c r="T68" s="83">
+        <v>-0.462787545469524</v>
+      </c>
+      <c r="U68" s="83">
+        <v>-0.21112100110349499</v>
+      </c>
+      <c r="V68" s="87"/>
+      <c r="W68" s="79"/>
+      <c r="X68" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y68" s="68">
+        <v>-1.7152487598820401</v>
+      </c>
+      <c r="Z68" s="68">
+        <v>-0.17630861427896599</v>
+      </c>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="84">
+        <v>-0.47943563402227801</v>
+      </c>
+      <c r="AC68" s="80"/>
+      <c r="AD68" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE68" s="83">
+        <v>-1.52171058127228</v>
+      </c>
+      <c r="AF68" s="83">
+        <v>9.7325041376761706E-2</v>
+      </c>
+      <c r="AG68" s="83">
+        <v>-0.87112463692964304</v>
+      </c>
+      <c r="AH68" s="61"/>
     </row>
     <row r="69" spans="1:38" ht="12.5"/>
     <row r="70" spans="1:38" ht="12.5"/>
     <row r="71" spans="1:38" s="14" customFormat="1" ht="12.5"/>
     <row r="72" spans="1:38" ht="12.5"/>
     <row r="73" spans="1:38" ht="12.5">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="123"/>
     </row>
     <row r="74" spans="1:38" ht="12.5">
-      <c r="K74" s="89" t="s">
+      <c r="K74" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="L74" s="89"/>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89"/>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="89"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="89"/>
-      <c r="V74" s="89"/>
-      <c r="W74" s="89"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
       <c r="X74" s="47"/>
       <c r="Y74" s="47"/>
       <c r="Z74" s="47"/>
@@ -6222,42 +6978,42 @@
       <c r="A75" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="93"/>
-      <c r="D75" s="92" t="s">
+      <c r="C75" s="120"/>
+      <c r="D75" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="92" t="s">
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="120"/>
+      <c r="H75" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="93"/>
+      <c r="I75" s="120"/>
       <c r="J75" s="28"/>
-      <c r="K75" s="78" t="s">
+      <c r="K75" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L75" s="90" t="s">
+      <c r="L75" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="90" t="s">
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
+      <c r="O75" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-      <c r="R75" s="79"/>
-      <c r="S75" s="79"/>
-      <c r="T75" s="79"/>
-      <c r="U75" s="90" t="s">
+      <c r="P75" s="105"/>
+      <c r="Q75" s="105"/>
+      <c r="R75" s="105"/>
+      <c r="S75" s="105"/>
+      <c r="T75" s="105"/>
+      <c r="U75" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="V75" s="90"/>
-      <c r="W75" s="90"/>
+      <c r="V75" s="115"/>
+      <c r="W75" s="115"/>
       <c r="X75" s="47"/>
       <c r="Y75" s="47"/>
       <c r="Z75" s="47"/>
@@ -6270,43 +7026,43 @@
       <c r="C76" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="94" t="s">
+      <c r="D76" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="95"/>
-      <c r="F76" s="94" t="s">
+      <c r="E76" s="117"/>
+      <c r="F76" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="95"/>
-      <c r="H76" s="97" t="s">
+      <c r="G76" s="117"/>
+      <c r="H76" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="97" t="s">
+      <c r="I76" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="79"/>
-      <c r="L76" s="78" t="s">
+      <c r="K76" s="105"/>
+      <c r="L76" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="78" t="s">
+      <c r="M76" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="N76" s="78" t="s">
+      <c r="N76" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="O76" s="78" t="s">
+      <c r="O76" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="79"/>
-      <c r="Q76" s="79"/>
-      <c r="R76" s="78" t="s">
+      <c r="P76" s="105"/>
+      <c r="Q76" s="105"/>
+      <c r="R76" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="S76" s="79"/>
-      <c r="T76" s="79"/>
-      <c r="U76" s="90"/>
-      <c r="V76" s="90"/>
-      <c r="W76" s="90"/>
+      <c r="S76" s="105"/>
+      <c r="T76" s="105"/>
+      <c r="U76" s="115"/>
+      <c r="V76" s="115"/>
+      <c r="W76" s="115"/>
       <c r="X76" s="47"/>
       <c r="Y76" s="47"/>
       <c r="Z76" s="47"/>
@@ -6327,12 +7083,12 @@
       <c r="G77" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="122"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
       <c r="O77" s="31" t="s">
         <v>8</v>
       </c>
@@ -7761,7 +8517,7 @@
       <c r="F128" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="84">
     <mergeCell ref="M76:M77"/>
     <mergeCell ref="N76:N77"/>
     <mergeCell ref="H21:J21"/>
@@ -7785,6 +8541,11 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A73:I73"/>
     <mergeCell ref="B75:C75"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="D75:G75"/>
@@ -7819,7 +8580,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="W37:AA37"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R21:R22"/>
@@ -7829,17 +8589,19 @@
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A19:S19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="X63:AB63"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="W37:AA37"/>
     <mergeCell ref="U19:AQ19"/>
     <mergeCell ref="U20:AA20"/>
     <mergeCell ref="AK20:AQ20"/>
-    <mergeCell ref="A19:S19"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="P56:P57"/>
     <mergeCell ref="P37:T37"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
